--- a/Documentation/Requirements.xlsx
+++ b/Documentation/Requirements.xlsx
@@ -525,9 +525,6 @@
     <t>Der Nutzer existiert, aber die eingegeben Daten sind falsch oder existiert nicht</t>
   </si>
   <si>
-    <t>Twittex kenn die Daten eines jeden Nutzers</t>
-  </si>
-  <si>
     <t>Nach dem versuchten einloggen, kommt man auf eine neue Seite mit einer Fehlermeldung</t>
   </si>
   <si>
@@ -685,13 +682,16 @@
   </si>
   <si>
     <t>Landingpage</t>
+  </si>
+  <si>
+    <t>Twittex kennt die Daten eines jeden Nutzers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -715,8 +715,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +736,24 @@
         <bgColor rgb="FFE6D5C4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -739,7 +764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -747,8 +772,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -758,14 +793,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1097,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B47"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1134,10 +1183,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
@@ -1151,14 +1200,14 @@
       <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>50</v>
@@ -1172,14 +1221,14 @@
       <c r="F3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
@@ -1193,14 +1242,14 @@
       <c r="F4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>57</v>
@@ -1216,10 +1265,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
@@ -1237,7 +1286,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>64</v>
@@ -1258,7 +1307,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>64</v>
@@ -1279,7 +1328,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>64</v>
@@ -1300,7 +1349,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>64</v>
@@ -1321,7 +1370,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>64</v>
@@ -1342,10 +1391,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1363,10 +1412,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1384,10 +1433,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1405,10 +1454,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -1422,14 +1471,14 @@
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -1447,10 +1496,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -1468,10 +1517,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
@@ -1489,10 +1538,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
@@ -1510,10 +1559,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
@@ -1531,10 +1580,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>36</v>
@@ -1552,10 +1601,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>40</v>
@@ -1573,10 +1622,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
@@ -1594,10 +1643,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
@@ -1615,7 +1664,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>81</v>
@@ -1636,7 +1685,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>81</v>
@@ -1657,7 +1706,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>81</v>
@@ -1678,7 +1727,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>81</v>
@@ -1699,7 +1748,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>81</v>
@@ -1720,7 +1769,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>81</v>
@@ -1741,7 +1790,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>81</v>
@@ -1762,7 +1811,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>81</v>
@@ -1783,7 +1832,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>81</v>
@@ -1804,7 +1853,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>81</v>
@@ -1825,7 +1874,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>81</v>
@@ -1842,11 +1891,10 @@
       <c r="F35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>81</v>
@@ -1863,14 +1911,14 @@
       <c r="F36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>129</v>
@@ -1888,10 +1936,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>133</v>
@@ -1909,10 +1957,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>137</v>
@@ -1930,10 +1978,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>141</v>
@@ -1951,10 +1999,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>145</v>
@@ -1972,10 +2020,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>149</v>
@@ -1993,10 +2041,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>153</v>
@@ -2010,14 +2058,13 @@
       <c r="F43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>156</v>
@@ -2031,14 +2078,14 @@
       <c r="F44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>159</v>
@@ -2052,14 +2099,14 @@
       <c r="F45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>163</v>
@@ -2073,14 +2120,14 @@
       <c r="F46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>166</v>
@@ -2089,12 +2136,12 @@
         <v>167</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documentation/Requirements.xlsx
+++ b/Documentation/Requirements.xlsx
@@ -723,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,12 +739,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -794,9 +788,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1146,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1471,7 +1463,7 @@
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
@@ -2099,7 +2091,7 @@
       <c r="F45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
@@ -2120,7 +2112,7 @@
       <c r="F46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">

--- a/Documentation/Requirements.xlsx
+++ b/Documentation/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -720,6 +720,11 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -777,7 +782,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -789,6 +794,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1138,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1253,7 +1259,7 @@
       <c r="F5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -1274,7 +1280,7 @@
       <c r="F6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1400,7 +1406,7 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -1484,7 +1490,7 @@
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
@@ -1505,7 +1511,7 @@
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -1526,7 +1532,7 @@
       <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
@@ -1568,7 +1574,7 @@
       <c r="F20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
@@ -1652,7 +1658,7 @@
       <c r="F24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
@@ -1673,7 +1679,7 @@
       <c r="F25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
@@ -1694,7 +1700,7 @@
       <c r="F26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
@@ -1715,7 +1721,7 @@
       <c r="F27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
@@ -1757,7 +1763,7 @@
       <c r="F29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
@@ -1778,7 +1784,7 @@
       <c r="F30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
@@ -1799,7 +1805,7 @@
       <c r="F31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
@@ -1820,7 +1826,7 @@
       <c r="F32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
@@ -1841,7 +1847,7 @@
       <c r="F33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -1862,7 +1868,7 @@
       <c r="F34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
@@ -1945,7 +1951,7 @@
       <c r="F38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
@@ -1966,7 +1972,7 @@
       <c r="F39" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">

--- a/Documentation/Requirements.xlsx
+++ b/Documentation/Requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,13 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +782,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -792,27 +792,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1141,19 +1143,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="3" max="5" width="70.83203125" customWidth="1"/>
-    <col min="6" max="6" width="89.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="82.375" customWidth="1"/>
+    <col min="4" max="5" width="70.875" customWidth="1"/>
+    <col min="6" max="6" width="89.875" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1301,7 +1302,7 @@
       <c r="F7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
@@ -1322,7 +1323,7 @@
       <c r="F8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -1343,7 +1344,7 @@
       <c r="F9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
@@ -1364,7 +1365,7 @@
       <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
@@ -1385,7 +1386,7 @@
       <c r="F11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -1427,7 +1428,7 @@
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -1448,7 +1449,7 @@
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -1511,7 +1512,7 @@
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -1553,7 +1554,7 @@
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -1595,7 +1596,7 @@
       <c r="F21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
@@ -1616,7 +1617,7 @@
       <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -1637,7 +1638,7 @@
       <c r="F23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
@@ -1742,7 +1743,7 @@
       <c r="F28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
@@ -1889,6 +1890,7 @@
       <c r="F35" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
@@ -1930,7 +1932,7 @@
       <c r="F37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
@@ -1993,7 +1995,7 @@
       <c r="F40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
@@ -2014,7 +2016,7 @@
       <c r="F41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
@@ -2035,7 +2037,7 @@
       <c r="F42" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
@@ -2056,6 +2058,7 @@
       <c r="F43" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
@@ -2118,7 +2121,7 @@
       <c r="F46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="6"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
@@ -2143,7 +2146,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/Requirements.xlsx
+++ b/Documentation/Requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="227">
   <si>
     <t>REQ NR</t>
   </si>
@@ -685,13 +685,28 @@
   </si>
   <si>
     <t>Twittex kennt die Daten eines jeden Nutzers</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Post via POST-Request versenden</t>
+  </si>
+  <si>
+    <t>Twittex muss Nutzer kennen und Passwort akzeptieren</t>
+  </si>
+  <si>
+    <t>Nach dem Versenden erscheint im Profil ein neuer Post mit der gesendeten Nachricht</t>
+  </si>
+  <si>
+    <t>#R0047</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -763,8 +778,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -798,23 +815,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+  <cellStyles count="19">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1143,18 +1162,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="82.375" customWidth="1"/>
-    <col min="4" max="5" width="70.875" customWidth="1"/>
-    <col min="6" max="6" width="89.875" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" customWidth="1"/>
+    <col min="4" max="5" width="70.83203125" customWidth="1"/>
+    <col min="6" max="6" width="89.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2142,11 +2163,35 @@
       <c r="F47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/Requirements.xlsx
+++ b/Documentation/Requirements.xlsx
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
